--- a/test_cases/test_自动生成_pow.xlsx
+++ b/test_cases/test_自动生成_pow.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="275">
   <si>
     <t>用例名称</t>
   </si>
@@ -93,11 +93,6 @@
     <t>GET</t>
   </si>
   <si>
-    <t>r.status_code == 200
-r.json()["data"] == True
-r.json()["status"] == 200</t>
-  </si>
-  <si>
     <t>测试用例_3</t>
   </si>
   <si>
@@ -115,13 +110,6 @@
 }</t>
   </si>
   <si>
-    <t>r.status_code == 200
-r.json()["success"] == True
-isinstance(r.json()["data"], list)
-len(r.json()["data"]) == 15
-r.json()["dataCount"] == 439</t>
-  </si>
-  <si>
     <t>测试用例_4</t>
   </si>
   <si>
@@ -206,24 +194,10 @@
     <t>/pow-sms-service-dev/pow/sms/v1/authority/api/list</t>
   </si>
   <si>
-    <t>r.status_code == 200
-r.json()["success"] == True
-isinstance(r.json()["data"], list)
-len(r.json()["data"]) == 27
-r.json()["dataCount"] == 0</t>
-  </si>
-  <si>
     <t>测试用例_11</t>
   </si>
   <si>
     <t>/pow-sms-service-dev/pow/sms/v1/authority/query/2c9589ee71149b7f017115ddfcde0005</t>
-  </si>
-  <si>
-    <t>r.status_code == 200
-r.json()["success"] == True
-isinstance(r.json()["data"], dict)
-len(r.json()["data"]) == 17
-r.json()["dataCount"] == 0</t>
   </si>
   <si>
     <t>测试用例_12</t>
@@ -237,24 +211,10 @@
 }</t>
   </si>
   <si>
-    <t>r.status_code == 200
-r.json()["success"] == True
-isinstance(r.json()["data"], list)
-len(r.json()["data"]) == 16
-r.json()["dataCount"] == 0</t>
-  </si>
-  <si>
     <t>测试用例_13</t>
   </si>
   <si>
     <t>/pow-sms-service-dev/pow/sms/v1/menu/query/2c90b7b075b0b8dd0175b0bdfbc10004</t>
-  </si>
-  <si>
-    <t>r.status_code == 200
-r.json()["success"] == True
-isinstance(r.json()["data"], dict)
-len(r.json()["data"]) == 19
-r.json()["dataCount"] == 0</t>
   </si>
   <si>
     <t>测试用例_14</t>
@@ -290,13 +250,6 @@
 }</t>
   </si>
   <si>
-    <t>r.status_code == 200
-r.json()["success"] == True
-isinstance(r.json()["data"], list)
-len(r.json()["data"]) == 12
-r.json()["dataCount"] == 45</t>
-  </si>
-  <si>
     <t>测试用例_18</t>
   </si>
   <si>
@@ -326,13 +279,6 @@
 }</t>
   </si>
   <si>
-    <t>r.status_code == 200
-r.json()["success"] == True
-isinstance(r.json()["data"], list)
-len(r.json()["data"]) == 4
-r.json()["dataCount"] == 4</t>
-  </si>
-  <si>
     <t>测试用例_21</t>
   </si>
   <si>
@@ -343,13 +289,6 @@
     "photoLists": [],
     "repositoryId": "2c9589ea71b99b7b0171b99d234d0001"
 }</t>
-  </si>
-  <si>
-    <t>r.status_code == 200
-r.json()["success"] == True
-isinstance(r.json()["data"], list)
-len(r.json()["data"]) == 8
-r.json()["dataCount"] == 8</t>
   </si>
   <si>
     <t>测试用例_22</t>
@@ -444,13 +383,6 @@
     "lastName": "",
     "photoId": "40280d82725b40a5017272e5d4170005"
 }</t>
-  </si>
-  <si>
-    <t>r.status_code == 200
-r.json()["success"] == True
-isinstance(r.json()["data"], list)
-len(r.json()["data"]) == 2
-r.json()["dataCount"] == 2</t>
   </si>
   <si>
     <t>测试用例_31</t>
@@ -601,13 +533,6 @@
     <t>/pow-integration-service-dev/pow/integration/v1/maintenance/info/getSystem/2c9589e870c3c1520170c7aaced700ss</t>
   </si>
   <si>
-    <t>r.status_code == 200
-r.json()["success"] == True
-isinstance(r.json()["data"], list)
-len(r.json()["data"]) == 0
-r.json()["dataCount"] == 0</t>
-  </si>
-  <si>
     <t>测试用例_48</t>
   </si>
   <si>
@@ -659,13 +584,6 @@
     <t>/pow-arms-service-dev/pow/arms/v1/person/2c90b7b07718bed101771d70378b0001</t>
   </si>
   <si>
-    <t>r.status_code == 200
-r.json()["success"] == True
-isinstance(r.json()["data"], dict)
-len(r.json()["data"]) == 38
-r.json()["dataCount"] == 0</t>
-  </si>
-  <si>
     <t>测试用例_56</t>
   </si>
   <si>
@@ -719,13 +637,6 @@
   </si>
   <si>
     <t>/pow-arms-service-dev/pow/arms/v1/equipment/dvr/list</t>
-  </si>
-  <si>
-    <t>r.status_code == 200
-r.json()["success"] == True
-isinstance(r.json()["data"], list)
-len(r.json()["data"]) == 1
-r.json()["dataCount"] == 1</t>
   </si>
   <si>
     <t>测试用例_63</t>
@@ -965,50 +876,22 @@
     <t>/pow-arms-service-dev/pow/arms/v1/statistics/organization</t>
   </si>
   <si>
-    <t>r.status_code == 200
-r.json()["success"] == True
-isinstance(r.json()["data"], list)
-len(r.json()["data"]) == 8
-r.json()["dataCount"] == 0</t>
-  </si>
-  <si>
     <t>测试用例_94</t>
   </si>
   <si>
     <t>/pow-arms-service-dev/pow/arms/v1/statistics/equipment</t>
   </si>
   <si>
-    <t>r.status_code == 200
-r.json()["success"] == True
-isinstance(r.json()["data"], list)
-len(r.json()["data"]) == 64
-r.json()["dataCount"] == 0</t>
-  </si>
-  <si>
     <t>测试用例_95</t>
   </si>
   <si>
     <t>/pow-arms-service-dev/pow/arms/v1/statistics/person</t>
   </si>
   <si>
-    <t>r.status_code == 200
-r.json()["success"] == True
-isinstance(r.json()["data"], list)
-len(r.json()["data"]) == 81
-r.json()["dataCount"] == 0</t>
-  </si>
-  <si>
     <t>测试用例_96</t>
   </si>
   <si>
     <t>/pow-arms-service-dev/pow/arms/v1/statistics/subStationOrgLevel</t>
-  </si>
-  <si>
-    <t>r.status_code == 200
-r.json()["success"] == True
-isinstance(r.json()["data"], list)
-len(r.json()["data"]) == 3
-r.json()["dataCount"] == 0</t>
   </si>
   <si>
     <t>测试用例_97</t>
@@ -1027,13 +910,6 @@
   </si>
   <si>
     <t>/pow-arms-service-dev/pow/arms/v1/time/2c90b7b076d1bf6a0176da84fae2001a</t>
-  </si>
-  <si>
-    <t>r.status_code == 200
-r.json()["success"] == True
-isinstance(r.json()["data"], dict)
-len(r.json()["data"]) == 23
-r.json()["dataCount"] == 0</t>
   </si>
   <si>
     <t>测试用例_99</t>
@@ -1069,24 +945,10 @@
     <t>/pow-arms-service-dev/pow/arms/v1/group/2c90b7b0761d034c01765f2497660002</t>
   </si>
   <si>
-    <t>r.status_code == 200
-r.json()["success"] == True
-isinstance(r.json()["data"], dict)
-len(r.json()["data"]) == 11
-r.json()["dataCount"] == 0</t>
-  </si>
-  <si>
     <t>测试用例_104</t>
   </si>
   <si>
     <t>/pow-arms-service-dev/pow/arms/v1/equipments/threshold/list</t>
-  </si>
-  <si>
-    <t>r.status_code == 200
-r.json()["success"] == True
-isinstance(r.json()["data"], list)
-len(r.json()["data"]) == 20
-r.json()["dataCount"] == 0</t>
   </si>
   <si>
     <t>测试用例_105</t>
@@ -1128,6 +990,149 @@
   <si>
     <t>var.token = r.json()['data']['tokenInfo']['access_token']
 a = 123</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r.status_code == 200
+r.json()["data"] is True
+r.json()["status"] == 200</t>
+  </si>
+  <si>
+    <t>r.status_code == 200
+r.json()["success"] is True
+isinstance(r.json()["data"], list)
+len(r.json()["data"]) == 15
+r.json()["dataCount"] == 439</t>
+  </si>
+  <si>
+    <t>r.status_code == 200
+r.json()["success"] is True
+isinstance(r.json()["data"], list)
+len(r.json()["data"]) == 27
+r.json()["dataCount"] == 0</t>
+  </si>
+  <si>
+    <t>r.status_code == 200
+r.json()["success"] is True
+isinstance(r.json()["data"], dict)
+len(r.json()["data"]) == 17
+r.json()["dataCount"] == 0</t>
+  </si>
+  <si>
+    <t>r.status_code == 200
+r.json()["success"] is True
+isinstance(r.json()["data"], list)
+len(r.json()["data"]) == 16
+r.json()["dataCount"] == 0</t>
+  </si>
+  <si>
+    <t>r.status_code == 200
+r.json()["success"] is True
+isinstance(r.json()["data"], dict)
+len(r.json()["data"]) == 19
+r.json()["dataCount"] == 0</t>
+  </si>
+  <si>
+    <t>r.status_code == 200
+r.json()["success"] is True
+isinstance(r.json()["data"], list)
+len(r.json()["data"]) == 12
+r.json()["dataCount"] == 45</t>
+  </si>
+  <si>
+    <t>r.status_code == 200
+r.json()["success"] is True
+isinstance(r.json()["data"], list)
+len(r.json()["data"]) == 4
+r.json()["dataCount"] == 4</t>
+  </si>
+  <si>
+    <t>r.status_code == 200
+r.json()["success"] is True
+isinstance(r.json()["data"], list)
+len(r.json()["data"]) == 8
+r.json()["dataCount"] == 8</t>
+  </si>
+  <si>
+    <t>r.status_code == 200
+r.json()["success"] is True
+isinstance(r.json()["data"], list)
+len(r.json()["data"]) == 2
+r.json()["dataCount"] == 2</t>
+  </si>
+  <si>
+    <t>r.status_code == 200
+r.json()["success"] is True
+isinstance(r.json()["data"], list)
+len(r.json()["data"]) == 0
+r.json()["dataCount"] == 0</t>
+  </si>
+  <si>
+    <t>r.status_code == 200
+r.json()["success"] is True
+isinstance(r.json()["data"], dict)
+len(r.json()["data"]) == 38
+r.json()["dataCount"] == 0</t>
+  </si>
+  <si>
+    <t>r.status_code == 200
+r.json()["success"] is True
+isinstance(r.json()["data"], list)
+len(r.json()["data"]) == 1
+r.json()["dataCount"] == 1</t>
+  </si>
+  <si>
+    <t>r.status_code == 200
+r.json()["success"] is True
+isinstance(r.json()["data"], list)
+len(r.json()["data"]) == 8
+r.json()["dataCount"] == 0</t>
+  </si>
+  <si>
+    <t>r.status_code == 200
+r.json()["success"] is True
+isinstance(r.json()["data"], list)
+len(r.json()["data"]) == 64
+r.json()["dataCount"] == 0</t>
+  </si>
+  <si>
+    <t>r.status_code == 200
+r.json()["success"] is True
+isinstance(r.json()["data"], list)
+len(r.json()["data"]) == 81
+r.json()["dataCount"] == 0</t>
+  </si>
+  <si>
+    <t>r.status_code == 200
+r.json()["success"] is True
+isinstance(r.json()["data"], list)
+len(r.json()["data"]) == 3
+r.json()["dataCount"] == 0</t>
+  </si>
+  <si>
+    <t>r.status_code == 200
+r.json()["success"] is True
+isinstance(r.json()["data"], dict)
+len(r.json()["data"]) == 23
+r.json()["dataCount"] == 0</t>
+  </si>
+  <si>
+    <t>r.status_code == 200
+r.json()["success"] is True
+isinstance(r.json()["data"], dict)
+len(r.json()["data"]) == 11
+r.json()["dataCount"] == 0</t>
+  </si>
+  <si>
+    <t>r.status_code == 200
+r.json()["success"] is True
+isinstance(r.json()["data"], list)
+len(r.json()["data"]) == 20
+r.json()["dataCount"] == 0</t>
+  </si>
+  <si>
+    <t>自动生成
+测试</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1507,8 +1512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1569,8 +1574,8 @@
       <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
+      <c r="E2" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="G2" t="s">
         <v>16</v>
@@ -1579,7 +1584,7 @@
         <v>17</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
@@ -1588,7 +1593,7 @@
         <v>19</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="135">
@@ -1608,54 +1613,54 @@
         <v>15</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="G3" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="H3" t="s">
         <v>21</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="L3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="54">
+        <v>249</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="270">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
       </c>
       <c r="H4" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" t="s">
         <v>25</v>
       </c>
-      <c r="K4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" t="s">
-        <v>27</v>
+      <c r="L4" s="3" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="40.5">
@@ -1663,28 +1668,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="L5" t="s">
         <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="L5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="40.5">
@@ -1692,28 +1697,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="L6" t="s">
         <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="L6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="40.5">
@@ -1721,28 +1726,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="L7" t="s">
         <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="L7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="40.5">
@@ -1750,28 +1755,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="L8" t="s">
         <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="L8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="54">
@@ -1779,7 +1784,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -1791,22 +1796,22 @@
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H9" t="s">
         <v>17</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="J9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" t="s">
         <v>42</v>
-      </c>
-      <c r="K9" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="40.5">
@@ -1814,36 +1819,36 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="L10" t="s">
         <v>45</v>
       </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="L10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="54">
+    </row>
+    <row r="11" spans="1:13" ht="270">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -1855,27 +1860,27 @@
         <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
         <v>17</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="K11" t="s">
-        <v>43</v>
-      </c>
-      <c r="L11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="40.5">
+        <v>41</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="270">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -1887,24 +1892,24 @@
         <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s">
         <v>21</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="L12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="54">
+        <v>249</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="270">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -1916,27 +1921,27 @@
         <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H13" t="s">
         <v>17</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="K13" t="s">
-        <v>56</v>
-      </c>
-      <c r="L13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="40.5">
+        <v>52</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="270">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
@@ -1948,16 +1953,16 @@
         <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H14" t="s">
         <v>21</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="L14" t="s">
-        <v>60</v>
+        <v>249</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="54">
@@ -1965,7 +1970,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
@@ -1977,22 +1982,22 @@
         <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H15" t="s">
         <v>17</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="J15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" t="s">
         <v>42</v>
-      </c>
-      <c r="K15" t="s">
-        <v>43</v>
-      </c>
-      <c r="L15" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="40.5">
@@ -2000,7 +2005,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
@@ -2012,16 +2017,16 @@
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H16" t="s">
         <v>21</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="40.5">
@@ -2029,7 +2034,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
@@ -2041,24 +2046,24 @@
         <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H17" t="s">
         <v>21</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="54">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="270">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
@@ -2070,22 +2075,22 @@
         <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H18" t="s">
         <v>17</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="J18" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K18" t="s">
-        <v>43</v>
-      </c>
-      <c r="L18" t="s">
-        <v>70</v>
+        <v>41</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="40.5">
@@ -2093,7 +2098,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
@@ -2105,19 +2110,19 @@
         <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="H19" t="s">
         <v>21</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="J19" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="L19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="40.5">
@@ -2125,7 +2130,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
@@ -2137,24 +2142,24 @@
         <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="H20" t="s">
         <v>21</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="54">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="270">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
@@ -2166,30 +2171,30 @@
         <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H21" t="s">
         <v>17</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="J21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K21" t="s">
-        <v>78</v>
-      </c>
-      <c r="L21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="54">
+        <v>71</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="270">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
@@ -2201,22 +2206,22 @@
         <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H22" t="s">
         <v>17</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="J22" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K22" t="s">
-        <v>82</v>
-      </c>
-      <c r="L22" t="s">
-        <v>83</v>
+        <v>74</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="40.5">
@@ -2224,7 +2229,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
         <v>13</v>
@@ -2236,19 +2241,19 @@
         <v>15</v>
       </c>
       <c r="G23" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="H23" t="s">
         <v>21</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="J23" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="L23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="40.5">
@@ -2256,7 +2261,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
         <v>13</v>
@@ -2268,16 +2273,16 @@
         <v>15</v>
       </c>
       <c r="G24" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="H24" t="s">
         <v>21</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="40.5">
@@ -2285,7 +2290,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
         <v>13</v>
@@ -2297,19 +2302,19 @@
         <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="H25" t="s">
         <v>21</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="J25" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="L25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="40.5">
@@ -2317,7 +2322,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
         <v>13</v>
@@ -2329,16 +2334,16 @@
         <v>15</v>
       </c>
       <c r="G26" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s">
         <v>21</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L26" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="40.5">
@@ -2346,7 +2351,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
         <v>13</v>
@@ -2358,16 +2363,16 @@
         <v>15</v>
       </c>
       <c r="G27" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H27" t="s">
         <v>21</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L27" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="54">
@@ -2375,7 +2380,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
@@ -2387,19 +2392,19 @@
         <v>15</v>
       </c>
       <c r="G28" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H28" t="s">
         <v>17</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="K28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L28" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="40.5">
@@ -2407,7 +2412,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
         <v>13</v>
@@ -2419,16 +2424,16 @@
         <v>15</v>
       </c>
       <c r="G29" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s">
         <v>21</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L29" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="40.5">
@@ -2436,7 +2441,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
@@ -2448,27 +2453,27 @@
         <v>15</v>
       </c>
       <c r="G30" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="H30" t="s">
         <v>21</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="J30" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="L30" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="54">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="270">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C31" t="s">
         <v>13</v>
@@ -2480,22 +2485,22 @@
         <v>15</v>
       </c>
       <c r="G31" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="H31" t="s">
         <v>17</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="J31" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K31" t="s">
-        <v>106</v>
-      </c>
-      <c r="L31" t="s">
-        <v>107</v>
+        <v>97</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="40.5">
@@ -2503,7 +2508,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s">
         <v>13</v>
@@ -2515,16 +2520,16 @@
         <v>15</v>
       </c>
       <c r="G32" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="H32" t="s">
         <v>21</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L32" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="40.5">
@@ -2532,7 +2537,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C33" t="s">
         <v>13</v>
@@ -2544,16 +2549,16 @@
         <v>15</v>
       </c>
       <c r="G33" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H33" t="s">
         <v>21</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L33" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="54">
@@ -2561,7 +2566,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C34" t="s">
         <v>13</v>
@@ -2573,19 +2578,19 @@
         <v>15</v>
       </c>
       <c r="G34" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="H34" t="s">
         <v>17</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="K34" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="L34" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="40.5">
@@ -2593,7 +2598,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C35" t="s">
         <v>13</v>
@@ -2605,16 +2610,16 @@
         <v>15</v>
       </c>
       <c r="G35" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="H35" t="s">
         <v>21</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L35" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="40.5">
@@ -2622,7 +2627,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C36" t="s">
         <v>13</v>
@@ -2634,16 +2639,16 @@
         <v>15</v>
       </c>
       <c r="G36" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H36" t="s">
         <v>21</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L36" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="54">
@@ -2651,7 +2656,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C37" t="s">
         <v>13</v>
@@ -2663,19 +2668,19 @@
         <v>15</v>
       </c>
       <c r="G37" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="H37" t="s">
         <v>17</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="K37" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="L37" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="40.5">
@@ -2683,7 +2688,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C38" t="s">
         <v>13</v>
@@ -2695,16 +2700,16 @@
         <v>15</v>
       </c>
       <c r="G38" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="H38" t="s">
         <v>21</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L38" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="54">
@@ -2712,7 +2717,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C39" t="s">
         <v>13</v>
@@ -2724,19 +2729,19 @@
         <v>15</v>
       </c>
       <c r="G39" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="H39" t="s">
         <v>17</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="K39" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="L39" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="40.5">
@@ -2744,7 +2749,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
@@ -2756,16 +2761,16 @@
         <v>15</v>
       </c>
       <c r="G40" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H40" t="s">
         <v>21</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L40" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="54">
@@ -2773,7 +2778,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
@@ -2785,19 +2790,19 @@
         <v>15</v>
       </c>
       <c r="G41" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H41" t="s">
         <v>17</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="K41" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="L41" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="40.5">
@@ -2805,7 +2810,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C42" t="s">
         <v>13</v>
@@ -2817,16 +2822,16 @@
         <v>15</v>
       </c>
       <c r="G42" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H42" t="s">
         <v>21</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L42" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="40.5">
@@ -2834,7 +2839,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C43" t="s">
         <v>13</v>
@@ -2846,16 +2851,16 @@
         <v>15</v>
       </c>
       <c r="G43" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="H43" t="s">
         <v>21</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L43" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="40.5">
@@ -2863,7 +2868,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C44" t="s">
         <v>13</v>
@@ -2875,16 +2880,16 @@
         <v>15</v>
       </c>
       <c r="G44" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="H44" t="s">
         <v>21</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L44" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="40.5">
@@ -2892,7 +2897,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="C45" t="s">
         <v>13</v>
@@ -2904,19 +2909,19 @@
         <v>15</v>
       </c>
       <c r="G45" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="H45" t="s">
         <v>21</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="J45" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="L45" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="40.5">
@@ -2924,7 +2929,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C46" t="s">
         <v>13</v>
@@ -2936,16 +2941,16 @@
         <v>15</v>
       </c>
       <c r="G46" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="H46" t="s">
         <v>21</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L46" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="40.5">
@@ -2953,7 +2958,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C47" t="s">
         <v>13</v>
@@ -2965,24 +2970,24 @@
         <v>15</v>
       </c>
       <c r="G47" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H47" t="s">
         <v>21</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L47" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="40.5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="270">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C48" t="s">
         <v>13</v>
@@ -2994,16 +2999,16 @@
         <v>15</v>
       </c>
       <c r="G48" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="H48" t="s">
         <v>21</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="L48" t="s">
-        <v>146</v>
+        <v>249</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="40.5">
@@ -3011,7 +3016,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C49" t="s">
         <v>13</v>
@@ -3023,16 +3028,16 @@
         <v>15</v>
       </c>
       <c r="G49" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="H49" t="s">
         <v>21</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L49" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="40.5">
@@ -3040,7 +3045,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C50" t="s">
         <v>13</v>
@@ -3052,16 +3057,16 @@
         <v>15</v>
       </c>
       <c r="G50" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="H50" t="s">
         <v>21</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L50" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="40.5">
@@ -3069,7 +3074,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C51" t="s">
         <v>13</v>
@@ -3081,16 +3086,16 @@
         <v>15</v>
       </c>
       <c r="G51" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="H51" t="s">
         <v>21</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L51" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="40.5">
@@ -3098,7 +3103,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C52" t="s">
         <v>13</v>
@@ -3110,24 +3115,24 @@
         <v>15</v>
       </c>
       <c r="G52" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="H52" t="s">
         <v>21</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L52" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="54">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="270">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C53" t="s">
         <v>13</v>
@@ -3139,22 +3144,22 @@
         <v>15</v>
       </c>
       <c r="G53" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="H53" t="s">
         <v>17</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="J53" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K53" t="s">
-        <v>157</v>
-      </c>
-      <c r="L53" t="s">
-        <v>83</v>
+        <v>146</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="40.5">
@@ -3162,7 +3167,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C54" t="s">
         <v>13</v>
@@ -3174,16 +3179,16 @@
         <v>15</v>
       </c>
       <c r="G54" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="H54" t="s">
         <v>21</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L54" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="40.5">
@@ -3191,7 +3196,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C55" t="s">
         <v>13</v>
@@ -3203,24 +3208,24 @@
         <v>15</v>
       </c>
       <c r="G55" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="H55" t="s">
         <v>21</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L55" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="40.5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="270">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C56" t="s">
         <v>13</v>
@@ -3232,16 +3237,16 @@
         <v>15</v>
       </c>
       <c r="G56" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="H56" t="s">
         <v>21</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="L56" t="s">
-        <v>163</v>
+        <v>249</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="40.5">
@@ -3249,7 +3254,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C57" t="s">
         <v>13</v>
@@ -3261,24 +3266,24 @@
         <v>15</v>
       </c>
       <c r="G57" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="H57" t="s">
         <v>21</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L57" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="54">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="270">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C58" t="s">
         <v>13</v>
@@ -3290,22 +3295,22 @@
         <v>15</v>
       </c>
       <c r="G58" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="H58" t="s">
         <v>17</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="J58" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K58" t="s">
-        <v>168</v>
-      </c>
-      <c r="L58" t="s">
-        <v>107</v>
+        <v>156</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="40.5">
@@ -3313,7 +3318,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C59" t="s">
         <v>13</v>
@@ -3325,16 +3330,16 @@
         <v>15</v>
       </c>
       <c r="G59" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="H59" t="s">
         <v>21</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L59" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="40.5">
@@ -3342,7 +3347,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C60" t="s">
         <v>13</v>
@@ -3354,16 +3359,16 @@
         <v>15</v>
       </c>
       <c r="G60" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="H60" t="s">
         <v>21</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L60" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="40.5">
@@ -3371,7 +3376,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C61" t="s">
         <v>13</v>
@@ -3383,16 +3388,16 @@
         <v>15</v>
       </c>
       <c r="G61" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H61" t="s">
         <v>21</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L61" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="40.5">
@@ -3400,7 +3405,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C62" t="s">
         <v>13</v>
@@ -3412,24 +3417,24 @@
         <v>15</v>
       </c>
       <c r="G62" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="H62" t="s">
         <v>21</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L62" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="54">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="270">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C63" t="s">
         <v>13</v>
@@ -3441,22 +3446,22 @@
         <v>15</v>
       </c>
       <c r="G63" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="H63" t="s">
         <v>17</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="J63" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K63" t="s">
-        <v>168</v>
-      </c>
-      <c r="L63" t="s">
-        <v>180</v>
+        <v>156</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="40.5">
@@ -3464,7 +3469,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C64" t="s">
         <v>13</v>
@@ -3476,16 +3481,16 @@
         <v>15</v>
       </c>
       <c r="G64" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="H64" t="s">
         <v>21</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L64" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="40.5">
@@ -3493,7 +3498,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C65" t="s">
         <v>13</v>
@@ -3505,16 +3510,16 @@
         <v>15</v>
       </c>
       <c r="G65" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H65" t="s">
         <v>21</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L65" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="40.5">
@@ -3522,7 +3527,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="C66" t="s">
         <v>13</v>
@@ -3534,24 +3539,24 @@
         <v>15</v>
       </c>
       <c r="G66" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="H66" t="s">
         <v>21</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L66" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="54">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="270">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C67" t="s">
         <v>13</v>
@@ -3563,22 +3568,22 @@
         <v>15</v>
       </c>
       <c r="G67" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="H67" t="s">
         <v>17</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="J67" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K67" t="s">
-        <v>168</v>
-      </c>
-      <c r="L67" t="s">
-        <v>180</v>
+        <v>156</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="40.5">
@@ -3586,7 +3591,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="C68" t="s">
         <v>13</v>
@@ -3598,16 +3603,16 @@
         <v>15</v>
       </c>
       <c r="G68" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="H68" t="s">
         <v>21</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L68" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="40.5">
@@ -3615,7 +3620,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="C69" t="s">
         <v>13</v>
@@ -3627,16 +3632,16 @@
         <v>15</v>
       </c>
       <c r="G69" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H69" t="s">
         <v>21</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L69" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="40.5">
@@ -3644,7 +3649,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="C70" t="s">
         <v>13</v>
@@ -3656,24 +3661,24 @@
         <v>15</v>
       </c>
       <c r="G70" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H70" t="s">
         <v>21</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L70" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="54">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="270">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="C71" t="s">
         <v>13</v>
@@ -3685,22 +3690,22 @@
         <v>15</v>
       </c>
       <c r="G71" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="H71" t="s">
         <v>17</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="J71" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K71" t="s">
-        <v>196</v>
-      </c>
-      <c r="L71" t="s">
-        <v>180</v>
+        <v>183</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="40.5">
@@ -3708,7 +3713,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="C72" t="s">
         <v>13</v>
@@ -3720,24 +3725,24 @@
         <v>15</v>
       </c>
       <c r="G72" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="H72" t="s">
         <v>21</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L72" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="54">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="270">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="C73" t="s">
         <v>13</v>
@@ -3749,22 +3754,22 @@
         <v>15</v>
       </c>
       <c r="G73" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="H73" t="s">
         <v>17</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="J73" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K73" t="s">
-        <v>196</v>
-      </c>
-      <c r="L73" t="s">
-        <v>180</v>
+        <v>183</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="40.5">
@@ -3772,7 +3777,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="C74" t="s">
         <v>13</v>
@@ -3784,16 +3789,16 @@
         <v>15</v>
       </c>
       <c r="G74" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="H74" t="s">
         <v>21</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L74" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="40.5">
@@ -3801,7 +3806,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C75" t="s">
         <v>13</v>
@@ -3813,16 +3818,16 @@
         <v>15</v>
       </c>
       <c r="G75" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="H75" t="s">
         <v>21</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L75" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="40.5">
@@ -3830,7 +3835,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="C76" t="s">
         <v>13</v>
@@ -3842,16 +3847,16 @@
         <v>15</v>
       </c>
       <c r="G76" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="H76" t="s">
         <v>21</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L76" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="40.5">
@@ -3859,7 +3864,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="C77" t="s">
         <v>13</v>
@@ -3871,16 +3876,16 @@
         <v>15</v>
       </c>
       <c r="G77" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="H77" t="s">
         <v>21</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L77" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="40.5">
@@ -3888,7 +3893,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="C78" t="s">
         <v>13</v>
@@ -3900,24 +3905,24 @@
         <v>15</v>
       </c>
       <c r="G78" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="H78" t="s">
         <v>21</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L78" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="54">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="270">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="C79" t="s">
         <v>13</v>
@@ -3929,30 +3934,30 @@
         <v>15</v>
       </c>
       <c r="G79" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="H79" t="s">
         <v>17</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="J79" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="K79" t="s">
-        <v>210</v>
-      </c>
-      <c r="L79" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="54">
+        <v>197</v>
+      </c>
+      <c r="L79" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="270">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="C80" t="s">
         <v>13</v>
@@ -3964,22 +3969,22 @@
         <v>15</v>
       </c>
       <c r="G80" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="H80" t="s">
         <v>17</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="J80" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="K80" t="s">
-        <v>210</v>
-      </c>
-      <c r="L80" t="s">
-        <v>107</v>
+        <v>197</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="40.5">
@@ -3987,7 +3992,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="C81" t="s">
         <v>13</v>
@@ -3999,16 +4004,16 @@
         <v>15</v>
       </c>
       <c r="G81" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="H81" t="s">
         <v>21</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L81" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="40.5">
@@ -4016,7 +4021,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="C82" t="s">
         <v>13</v>
@@ -4028,16 +4033,16 @@
         <v>15</v>
       </c>
       <c r="G82" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="H82" t="s">
         <v>21</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L82" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="40.5">
@@ -4045,7 +4050,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="C83" t="s">
         <v>13</v>
@@ -4057,16 +4062,16 @@
         <v>15</v>
       </c>
       <c r="G83" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="H83" t="s">
         <v>21</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L83" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="40.5">
@@ -4074,7 +4079,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="C84" t="s">
         <v>13</v>
@@ -4086,16 +4091,16 @@
         <v>15</v>
       </c>
       <c r="G84" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="H84" t="s">
         <v>21</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L84" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="40.5">
@@ -4103,7 +4108,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="C85" t="s">
         <v>13</v>
@@ -4115,16 +4120,16 @@
         <v>15</v>
       </c>
       <c r="G85" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="H85" t="s">
         <v>21</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L85" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="40.5">
@@ -4132,7 +4137,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="C86" t="s">
         <v>13</v>
@@ -4144,24 +4149,24 @@
         <v>15</v>
       </c>
       <c r="G86" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="H86" t="s">
         <v>21</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L86" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="54">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="270">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C87" t="s">
         <v>13</v>
@@ -4173,30 +4178,30 @@
         <v>15</v>
       </c>
       <c r="G87" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="H87" t="s">
         <v>17</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="J87" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="K87" t="s">
-        <v>223</v>
-      </c>
-      <c r="L87" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="54">
+        <v>210</v>
+      </c>
+      <c r="L87" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="270">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="C88" t="s">
         <v>13</v>
@@ -4208,30 +4213,30 @@
         <v>15</v>
       </c>
       <c r="G88" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="H88" t="s">
         <v>17</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="J88" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="K88" t="s">
-        <v>223</v>
-      </c>
-      <c r="L88" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="54">
+        <v>210</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="270">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="C89" t="s">
         <v>13</v>
@@ -4243,30 +4248,30 @@
         <v>15</v>
       </c>
       <c r="G89" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="H89" t="s">
         <v>17</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="J89" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="K89" t="s">
-        <v>223</v>
-      </c>
-      <c r="L89" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" ht="54">
+        <v>210</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="270">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C90" t="s">
         <v>13</v>
@@ -4278,30 +4283,30 @@
         <v>15</v>
       </c>
       <c r="G90" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="H90" t="s">
         <v>17</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="J90" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="K90" t="s">
-        <v>227</v>
-      </c>
-      <c r="L90" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" ht="54">
+        <v>214</v>
+      </c>
+      <c r="L90" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="270">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="C91" t="s">
         <v>13</v>
@@ -4313,30 +4318,30 @@
         <v>15</v>
       </c>
       <c r="G91" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="H91" t="s">
         <v>17</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="J91" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="K91" t="s">
-        <v>227</v>
-      </c>
-      <c r="L91" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" ht="54">
+        <v>214</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="270">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="C92" t="s">
         <v>13</v>
@@ -4348,22 +4353,22 @@
         <v>15</v>
       </c>
       <c r="G92" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="H92" t="s">
         <v>17</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="J92" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="K92" t="s">
-        <v>231</v>
-      </c>
-      <c r="L92" t="s">
-        <v>146</v>
+        <v>218</v>
+      </c>
+      <c r="L92" s="3" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="40.5">
@@ -4371,7 +4376,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="C93" t="s">
         <v>13</v>
@@ -4383,24 +4388,24 @@
         <v>15</v>
       </c>
       <c r="G93" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="H93" t="s">
         <v>21</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L93" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" ht="40.5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="270">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="C94" t="s">
         <v>13</v>
@@ -4412,24 +4417,24 @@
         <v>15</v>
       </c>
       <c r="G94" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="H94" t="s">
         <v>21</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="L94" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" ht="40.5">
+        <v>249</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="270">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="C95" t="s">
         <v>13</v>
@@ -4441,24 +4446,24 @@
         <v>15</v>
       </c>
       <c r="G95" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="H95" t="s">
         <v>21</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="L95" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="40.5">
+        <v>249</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="270">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C96" t="s">
         <v>13</v>
@@ -4470,24 +4475,24 @@
         <v>15</v>
       </c>
       <c r="G96" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="H96" t="s">
         <v>21</v>
       </c>
       <c r="I96" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="L96" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="L96" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" ht="40.5">
+    </row>
+    <row r="97" spans="1:12" ht="270">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="C97" t="s">
         <v>13</v>
@@ -4499,24 +4504,24 @@
         <v>15</v>
       </c>
       <c r="G97" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="H97" t="s">
         <v>21</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="L97" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" ht="54">
+        <v>249</v>
+      </c>
+      <c r="L97" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="270">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="C98" t="s">
         <v>13</v>
@@ -4528,27 +4533,27 @@
         <v>15</v>
       </c>
       <c r="G98" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="H98" t="s">
         <v>17</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="K98" t="s">
-        <v>248</v>
-      </c>
-      <c r="L98" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" ht="40.5">
+        <v>231</v>
+      </c>
+      <c r="L98" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="270">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="C99" t="s">
         <v>13</v>
@@ -4560,24 +4565,24 @@
         <v>15</v>
       </c>
       <c r="G99" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="H99" t="s">
         <v>21</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="L99" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" ht="54">
+        <v>249</v>
+      </c>
+      <c r="L99" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="270">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="C100" t="s">
         <v>13</v>
@@ -4589,27 +4594,27 @@
         <v>15</v>
       </c>
       <c r="G100" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="H100" t="s">
         <v>17</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="K100" t="s">
-        <v>248</v>
-      </c>
-      <c r="L100" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" ht="54">
+        <v>231</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="270">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="C101" t="s">
         <v>13</v>
@@ -4621,27 +4626,27 @@
         <v>15</v>
       </c>
       <c r="G101" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="H101" t="s">
         <v>17</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="K101" t="s">
-        <v>248</v>
-      </c>
-      <c r="L101" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" ht="54">
+        <v>231</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="270">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="C102" t="s">
         <v>13</v>
@@ -4653,30 +4658,30 @@
         <v>15</v>
       </c>
       <c r="G102" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="H102" t="s">
         <v>17</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="J102" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K102" t="s">
-        <v>257</v>
-      </c>
-      <c r="L102" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" ht="54">
+        <v>239</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="270">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="C103" t="s">
         <v>13</v>
@@ -4688,30 +4693,30 @@
         <v>15</v>
       </c>
       <c r="G103" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="H103" t="s">
         <v>17</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="J103" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="K103" t="s">
-        <v>257</v>
-      </c>
-      <c r="L103" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" ht="40.5">
+        <v>239</v>
+      </c>
+      <c r="L103" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="270">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="C104" t="s">
         <v>13</v>
@@ -4723,24 +4728,24 @@
         <v>15</v>
       </c>
       <c r="G104" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="H104" t="s">
         <v>21</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="L104" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" ht="40.5">
+        <v>249</v>
+      </c>
+      <c r="L104" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="270">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="C105" t="s">
         <v>13</v>
@@ -4752,16 +4757,16 @@
         <v>15</v>
       </c>
       <c r="G105" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="H105" t="s">
         <v>17</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="L105" t="s">
-        <v>264</v>
+        <v>249</v>
+      </c>
+      <c r="L105" s="3" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="40.5">
@@ -4769,7 +4774,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="C106" t="s">
         <v>13</v>
@@ -4781,19 +4786,19 @@
         <v>15</v>
       </c>
       <c r="G106" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="H106" t="s">
         <v>21</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="J106" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="L106" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
